--- a/slides/02_sredjivanje/data/transposition.xlsx
+++ b/slides/02_sredjivanje/data/transposition.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickg\Documents\R\prezentacije_os_2024\slides\02_sredjivanje\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6991CC9-5E6F-4DA7-97BF-2A80E1FEA9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE9B56-09F0-40EC-B261-5743D449325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metric 2019_22" sheetId="1" r:id="rId1"/>
     <sheet name="toplot" sheetId="2" r:id="rId2"/>
+    <sheet name="table" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>FRE</t>
   </si>
@@ -163,6 +164,12 @@
   </si>
   <si>
     <t>survival</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>episodes</t>
   </si>
 </sst>
 </file>
@@ -509,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -652,6 +659,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -697,7 +757,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,6 +802,27 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1090,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,13 +1882,321 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6564E29-064F-4281-B691-81D69FD83055}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>511</v>
+      </c>
+      <c r="C4" s="1">
+        <v>497</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4-C4</f>
+        <v>14</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F4" s="5">
+        <f>1-E4</f>
+        <v>2.7000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>578</v>
+      </c>
+      <c r="C5" s="1">
+        <v>572</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D14" si="0">B5-C5</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F14" si="1">1-E5</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>710</v>
+      </c>
+      <c r="C6" s="1">
+        <v>697</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>720</v>
+      </c>
+      <c r="C7" s="1">
+        <v>708</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>963</v>
+      </c>
+      <c r="C8" s="1">
+        <v>935</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000026E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>974</v>
+      </c>
+      <c r="C9" s="1">
+        <v>955</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000017E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>920</v>
+      </c>
+      <c r="C10" s="1">
+        <v>904</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1">
+        <v>661</v>
+      </c>
+      <c r="C11" s="1">
+        <v>653</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>932</v>
+      </c>
+      <c r="C12" s="1">
+        <v>913</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1141</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1118</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1476</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1469</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.995</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c0ec423-5f39-4cd1-9015-37fc60afb156">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Number xmlns="8c0ec423-5f39-4cd1-9015-37fc60afb156" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c87ab028-8257-48fa-bbf6-93c162f87ccb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2080,21 +2469,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c0ec423-5f39-4cd1-9015-37fc60afb156">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Number xmlns="8c0ec423-5f39-4cd1-9015-37fc60afb156" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c87ab028-8257-48fa-bbf6-93c162f87ccb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D4AC976-C99A-438F-8DC2-2F43D4AA5D93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6117CAD2-B687-4B78-A61A-050B72F06533}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="12021c70-3c94-4d3f-b2fe-52fbe9274247"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c0ec423-5f39-4cd1-9015-37fc60afb156"/>
+    <ds:schemaRef ds:uri="c87ab028-8257-48fa-bbf6-93c162f87ccb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2119,19 +2515,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6117CAD2-B687-4B78-A61A-050B72F06533}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D4AC976-C99A-438F-8DC2-2F43D4AA5D93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="12021c70-3c94-4d3f-b2fe-52fbe9274247"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8c0ec423-5f39-4cd1-9015-37fc60afb156"/>
-    <ds:schemaRef ds:uri="c87ab028-8257-48fa-bbf6-93c162f87ccb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
